--- a/docs/assets/disciplinas/LOM3219.xlsx
+++ b/docs/assets/disciplinas/LOM3219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os conceitos de nanociência e nanotecnologia. As propriedades físicas e químicas dos materiais em escala nanométrica são descritas pelas leis da mecânica quântica, apresentando nessas dimensões características distintas dos materiais em escala macroscópica. O conhecimento dessa área interdisciplinar é fundamental na formação de um pesquisador e/ou um profissional atuando na área de materiais.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Nanociência e nanotecnologia: princípios e aplicações.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Conceituação: nanociência e nanotecnologia. Sistemas de baixa dimensionalidade. Confinamento quântico. Ligações químicas: moléculas e aglomerados. Propriedades eletrônicas e estruturais. Síntese e fabricação de materiais em escala nanométrica: técnicas de baixo para cima (bottom-up) e de cima para baixo (top-down). Fullerenos e nanotubos de carbono. Autoorganização molecular e sistemas supramoleculares. Fios e pontos quânticos. Nanopartículas magnéticas. Técnicas de caracterização: difração, espalhamento e absorção de raios X, microscopia de varredura por tunelamento (STM), microscopia de força atômica (AFM), microscopia eletrônica de transmissão. Propriedades de transporte: transporte balístico, condutância quântica, bloqueio coulombiano. Dispositivos moleculares. Transporte difusivo. Nanomagnetismo: ordem magnética, superparamagnetismo e Spintrônica. Aplicações.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e seminários.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + 2P2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>TIMP, G. Nanotechnology, Springer, 1998. FERRY, D. K. Transport in Nanostructures, Cambridge University Press, 1999. WASER, R. Nanoelectronics and Information Technology, Wiley-UCM, 2003. DATTA, S. Quantum Transport: Atom to Transistor, Cambridge University Press, 2005. RATNER, M.; RATNER, D. Nanotechnology, Prentice Hall, 2003. DRESSELHAUS, M. Physical Properties of Carbon Nanotubes, Imperial College Press, 1998.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,122 +611,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3219.xlsx
+++ b/docs/assets/disciplinas/LOM3219.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-9</t>
+    <t>EF-8</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOM3219.xlsx
+++ b/docs/assets/disciplinas/LOM3219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
@@ -52,13 +52,13 @@
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>30 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,34 +70,43 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Present the concepts of nanoscience and nanotechnology. The physical and chemical properties of materials on a nanometer scale are described by the laws of quantum mechanics, presenting in these dimensions different characteristics of materials on a macroscopic scale. The knowledge of this interdisciplinary area is fundamental in the formation of a researcher and/or a professional working in the area of materials.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Nanoscience and nanotechnology: principles and applications.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>Conceptualization: nanoscience and nanotechnology. Low-dimensional systems. Quantum Confinement. Chemical bonds: molecules and clusters. Electronic and structural properties. Synthesis and fabrication of materials at the nanometer scale: bottom-up and top-down techniques. Fullerenes and carbon nanotubes. Molecular self-organization and supramolecular systems. Quantum wires and dots. Magnetic nanoparticles. Characterization techniques: X-ray diffraction, scattering and absorption, scanning tunneling microscopy (STM), atomic force microscopy (AFM), transmission electron microscopy. Transport properties: ballistic transport, quantum conductance, Coulomb blocking. Molecular devices. Diffusive transport. Nanomagnetism: magnetic order, superparamagnetism and spintronics. Applications.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -605,120 +614,138 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3219.xlsx
+++ b/docs/assets/disciplinas/LOM3219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os conceitos de nanociência e nanotecnologia. As propriedades físicas e químicas dos materiais em escala nanométrica são descritas pelas leis da mecânica quântica, apresentando nessas dimensões características distintas dos materiais em escala macroscópica. O conhecimento dessa área interdisciplinar é fundamental na formação de um pesquisador e/ou um profissional atuando na área de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Present the concepts of nanoscience and nanotechnology. The physical and chemical properties of materials on a nanometer scale are described by the laws of quantum mechanics, presenting in these dimensions different characteristics of materials on a macroscopic scale. The knowledge of this interdisciplinary area is fundamental in the formation of a researcher and/or a professional working in the area of materials.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Present the concepts of nanoscience and nanotechnology. The physical and chemical properties of materials on a nanometer scale are described by the laws of quantum mechanics, presenting in these dimensions different characteristics of materials on a macroscopic scale. The knowledge of this interdisciplinary area is fundamental in the formation of a researcher and/or a professional working in the area of materials.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Nanociência e nanotecnologia: princípios e aplicações.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Conceituação: nanociência e nanotecnologia. Sistemas de baixa dimensionalidade. Confinamento quântico. Ligações químicas: moléculas e aglomerados. Propriedades eletrônicas e estruturais. Síntese e fabricação de materiais em escala nanométrica: técnicas de baixo para cima (bottom-up) e de cima para baixo (top-down). Fullerenos e nanotubos de carbono. Autoorganização molecular e sistemas supramoleculares. Fios e pontos quânticos. Nanopartículas magnéticas. Técnicas de caracterização: difração, espalhamento e absorção de raios X, microscopia de varredura por tunelamento (STM), microscopia de força atômica (AFM), microscopia eletrônica de transmissão. Propriedades de transporte: transporte balístico, condutância quântica, bloqueio coulombiano. Dispositivos moleculares. Transporte difusivo. Nanomagnetismo: ordem magnética, superparamagnetismo e Spintrônica. Aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>Aulas expositivas e seminários.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e seminários.</t>
+    <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + 2P2)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + 2P2)/3</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>TIMP, G. Nanotechnology, Springer, 1998. FERRY, D. K. Transport in Nanostructures, Cambridge University Press, 1999. WASER, R. Nanoelectronics and Information Technology, Wiley-UCM, 2003. DATTA, S. Quantum Transport: Atom to Transistor, Cambridge University Press, 2005. RATNER, M.; RATNER, D. Nanotechnology, Prentice Hall, 2003. DRESSELHAUS, M. Physical Properties of Carbon Nanotubes, Imperial College Press, 1998.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,40 +638,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -670,30 +676,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -708,7 +714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -719,33 +725,55 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
